--- a/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,11 +1042,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1061,7 +1057,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1083,27 +1079,27 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="O9" t="n">
-        <v>82.8</v>
+        <v>82.94</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>2.57</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_01_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1134,7 +1130,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1156,27 +1152,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="O10" t="n">
-        <v>82.55</v>
+        <v>82.8</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1207,7 +1203,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1223,33 +1219,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="O11" t="n">
-        <v>82.33</v>
+        <v>82.55</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1280,7 +1276,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1302,23 +1298,234 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O12" t="n">
+        <v>82.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>500</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_30_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O14" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_15_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.53</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O15" t="n">
         <v>79.67</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P15" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q15" t="n">
         <v>2.17</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_56_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,11 +1468,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1487,7 +1483,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1509,23 +1505,96 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>80.84</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_43_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.53</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>79.67</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>2.17</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_56_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -583,11 +583,11 @@
         <v>0.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_26_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_16_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -608,11 +608,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -627,7 +623,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -652,24 +648,24 @@
         <v>0.41</v>
       </c>
       <c r="O3" t="n">
-        <v>85.03</v>
+        <v>85.09</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.89</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_05_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -700,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -716,33 +712,33 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="O4" t="n">
-        <v>84.89</v>
+        <v>85.03</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_43_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -773,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -795,27 +791,27 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>84.16</v>
+        <v>84.89</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>0.45</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_14_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_43_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -846,7 +842,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -868,27 +864,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>84.08</v>
+        <v>84.16</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_14_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,7 +896,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -915,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -930,7 +930,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -938,26 +940,24 @@
         <v>0.39</v>
       </c>
       <c r="O7" t="n">
-        <v>83.62</v>
+        <v>84.08</v>
       </c>
       <c r="P7" t="n">
         <v>0.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-22_12_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,11 +969,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -981,14 +977,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1003,34 +999,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="O8" t="n">
-        <v>83.02</v>
+        <v>83.62</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>0.88</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_34_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_01_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1057,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1073,33 +1069,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="O9" t="n">
-        <v>82.94</v>
+        <v>83.56</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_01_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_33_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1111,11 +1107,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1123,14 +1115,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1145,34 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="O10" t="n">
-        <v>82.8</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_30_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,11 +1176,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1203,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1219,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1228,24 +1216,24 @@
         <v>0.44</v>
       </c>
       <c r="O11" t="n">
-        <v>82.55</v>
+        <v>83.23</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_19_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1276,7 +1264,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1292,33 +1280,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="O12" t="n">
-        <v>82.33</v>
+        <v>83.02</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_34_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1361,33 +1349,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="O13" t="n">
-        <v>81.33</v>
+        <v>82.83</v>
       </c>
       <c r="P13" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_30_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_22_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,7 +1387,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1414,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1436,27 +1428,27 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="O14" t="n">
-        <v>80.91</v>
+        <v>82.8</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_15_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,7 +1460,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1483,7 +1479,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1499,33 +1495,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="O15" t="n">
-        <v>80.84</v>
+        <v>82.55</v>
       </c>
       <c r="P15" t="n">
         <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_43_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1537,11 +1533,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1556,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1572,29 +1564,244 @@
         </is>
       </c>
       <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O16" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_36_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>200</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O17" t="n">
+        <v>82.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O18" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_50_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.53</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O19" t="n">
         <v>79.67</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P19" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q19" t="n">
         <v>2.17</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_56_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,11 +750,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -762,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -784,9 +780,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -794,24 +788,26 @@
         <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>84.89</v>
+        <v>84.98</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_43_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -842,7 +838,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -864,27 +860,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>84.16</v>
+        <v>84.89</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>0.45</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_14_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_43_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,11 +892,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -915,49 +907,49 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O7" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O7" t="n">
-        <v>84.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_36_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -984,7 +976,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1004,20 +996,20 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="O8" t="n">
-        <v>83.62</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_01_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_58_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1026,7 +1018,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1046,14 +1038,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1068,9 +1060,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1078,24 +1068,26 @@
         <v>0.41</v>
       </c>
       <c r="O9" t="n">
-        <v>83.56</v>
+        <v>84.52</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_33_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_51_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1107,7 +1099,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1115,14 +1111,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1137,34 +1133,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="O10" t="n">
-        <v>83.51000000000001</v>
+        <v>84.16</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_30_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_14_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,7 +1187,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1213,59 +1209,59 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="O11" t="n">
-        <v>83.23</v>
+        <v>84.12</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7</v>
+        <v>0.34</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_19_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_27_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>acm</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>WH</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>128</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
       <c r="I12" t="n">
         <v>50</v>
       </c>
@@ -1280,33 +1276,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="O12" t="n">
-        <v>83.02</v>
+        <v>84.08</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_34_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1333,7 +1329,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1355,27 +1351,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="O13" t="n">
-        <v>82.83</v>
+        <v>83.66</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>0.68</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_22_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_03_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1387,11 +1383,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1399,14 +1391,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1421,34 +1413,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="O14" t="n">
-        <v>82.8</v>
+        <v>83.62</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>0.88</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_01_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1460,11 +1452,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1479,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1495,33 +1483,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="O15" t="n">
-        <v>82.55</v>
+        <v>83.59</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_43_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1548,7 +1536,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1564,26 +1552,26 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="O16" t="n">
-        <v>82.47</v>
+        <v>83.56</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.99</v>
+        <v>2.75</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_36_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_33_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1602,11 +1590,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1614,14 +1598,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1636,34 +1620,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="O17" t="n">
-        <v>82.33</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_30_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1690,7 +1674,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1706,33 +1690,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="O18" t="n">
-        <v>82.17</v>
+        <v>83.23</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.39</v>
+        <v>0.7</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_50_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_19_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1779,29 +1763,666 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O19" t="n">
+        <v>83.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_34_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>82.83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_22_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O21" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O22" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O23" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_36_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O24" t="n">
+        <v>82.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O25" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_50_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O26" t="n">
+        <v>81.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_10_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O27" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_19_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.53</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O28" t="n">
         <v>79.67</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P28" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q28" t="n">
         <v>2.17</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_56_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l01><WH>85.34.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>acm</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -661,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_05_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -780,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -876,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_43_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -892,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -945,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_36_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -961,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -991,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1030,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1060,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1156,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_14_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1172,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1225,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_27_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1298,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1314,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1367,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_03_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1383,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1413,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1452,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1505,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_43_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1521,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1574,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_33_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1590,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1620,7 +1698,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1659,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1712,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_19_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1785,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_34_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1801,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1854,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_22_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1927,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_00_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2000,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_46_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2016,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2069,7 +2171,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_36_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2142,7 +2246,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_24_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2158,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2211,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_50_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2227,7 +2339,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2280,7 +2396,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_10_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2296,7 +2414,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2349,7 +2471,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_19_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2422,7 +2546,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_56_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
